--- a/natmiOut/OldD7/LR-pairs_lrc2p/Matn1-Itga1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Matn1-Itga1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.240612788559988</v>
+        <v>0.3430696666666667</v>
       </c>
       <c r="H2">
-        <v>0.240612788559988</v>
+        <v>1.029209</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N2">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q2">
-        <v>16.70284479710316</v>
+        <v>25.93267669991056</v>
       </c>
       <c r="R2">
-        <v>16.70284479710316</v>
+        <v>233.394090299195</v>
       </c>
       <c r="S2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="T2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.240612788559988</v>
+        <v>0.3430696666666667</v>
       </c>
       <c r="H3">
-        <v>0.240612788559988</v>
+        <v>1.029209</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N3">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q3">
-        <v>2.921446988218926</v>
+        <v>4.169360080323222</v>
       </c>
       <c r="R3">
-        <v>2.921446988218926</v>
+        <v>37.524240722909</v>
       </c>
       <c r="S3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="T3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.240612788559988</v>
+        <v>0.3430696666666667</v>
       </c>
       <c r="H4">
-        <v>0.240612788559988</v>
+        <v>1.029209</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N4">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q4">
-        <v>0.03923859528620983</v>
+        <v>0.05926036758477779</v>
       </c>
       <c r="R4">
-        <v>0.03923859528620983</v>
+        <v>0.5333433082630001</v>
       </c>
       <c r="S4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="T4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.240612788559988</v>
+        <v>0.3430696666666667</v>
       </c>
       <c r="H5">
-        <v>0.240612788559988</v>
+        <v>1.029209</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N5">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q5">
-        <v>2.66086339190101</v>
+        <v>9.199971171657777</v>
       </c>
       <c r="R5">
-        <v>2.66086339190101</v>
+        <v>82.79974054492001</v>
       </c>
       <c r="S5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="T5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
     </row>
   </sheetData>
